--- a/duct_tape.xlsx
+++ b/duct_tape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4160" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="93">
   <si>
     <t>VLAN ID</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>PE3714080640</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -358,8 +361,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,7 +385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -388,6 +393,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -395,6 +401,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,8 +786,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -802,13 +809,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -916,7 +923,7 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
